--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value86.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value86.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153848957411197</v>
+        <v>2.288864850997925</v>
       </c>
       <c r="B1">
-        <v>1.280014680087409</v>
+        <v>4.826637268066406</v>
       </c>
       <c r="C1">
-        <v>1.535855336141589</v>
+        <v>0.2777638137340546</v>
       </c>
       <c r="D1">
-        <v>2.76205964447423</v>
+        <v>0.1666877269744873</v>
       </c>
       <c r="E1">
-        <v>5.137468254294645</v>
+        <v>0.144372284412384</v>
       </c>
     </row>
   </sheetData>
